--- a/www.eia.gov/electricity/monthly/xls/table_1_06_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_06_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 1.6.B. Utility Scale Facility Net Generation from Petroleum Coke</t>
   </si>
   <si>
-    <t>by State, by Sector, Year-to-Date through October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, Year-to-Date through November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage
@@ -1658,13 +1658,13 @@
         <v>24</v>
       </c>
       <c r="B14" s="10">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="C14" s="10">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="D14" s="11">
-        <v>0.14699999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="10">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="L14" s="10">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1696,13 +1696,13 @@
         <v>25</v>
       </c>
       <c r="B15" s="13">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C15" s="13">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D15" s="14">
-        <v>3.5000000000000003E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E15" s="13">
         <v>0</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="13">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L15" s="13">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1772,13 +1772,13 @@
         <v>27</v>
       </c>
       <c r="B17" s="13">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C17" s="13">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D17" s="14">
-        <v>0.19800000000000001</v>
+        <v>0.189</v>
       </c>
       <c r="E17" s="13">
         <v>0</v>
@@ -1799,10 +1799,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="13">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="L17" s="13">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1810,25 +1810,25 @@
         <v>28</v>
       </c>
       <c r="B18" s="10">
-        <v>2026</v>
+        <v>2160</v>
       </c>
       <c r="C18" s="10">
-        <v>2684</v>
+        <v>3000</v>
       </c>
       <c r="D18" s="11">
-        <v>-0.245</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="E18" s="10">
-        <v>1050</v>
+        <v>1094</v>
       </c>
       <c r="F18" s="10">
-        <v>1463</v>
+        <v>1659</v>
       </c>
       <c r="G18" s="10">
-        <v>799</v>
+        <v>875</v>
       </c>
       <c r="H18" s="10">
-        <v>991</v>
+        <v>1091</v>
       </c>
       <c r="I18" s="10">
         <v>0</v>
@@ -1837,10 +1837,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="10">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="L18" s="10">
-        <v>230</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1889,16 +1889,16 @@
         <v>497</v>
       </c>
       <c r="C20" s="13">
-        <v>881</v>
+        <v>1060</v>
       </c>
       <c r="D20" s="14">
-        <v>-0.436</v>
+        <v>-0.53100000000000003</v>
       </c>
       <c r="E20" s="13">
         <v>497</v>
       </c>
       <c r="F20" s="13">
-        <v>881</v>
+        <v>1060</v>
       </c>
       <c r="G20" s="13">
         <v>0</v>
@@ -1924,25 +1924,25 @@
         <v>31</v>
       </c>
       <c r="B21" s="13">
-        <v>616</v>
+        <v>664</v>
       </c>
       <c r="C21" s="13">
-        <v>678</v>
+        <v>703</v>
       </c>
       <c r="D21" s="14">
-        <v>-9.0999999999999998E-2</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="E21" s="13">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="F21" s="13">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="G21" s="13">
         <v>3</v>
       </c>
       <c r="H21" s="13">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I21" s="13">
         <v>0</v>
@@ -1951,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="K21" s="13">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L21" s="13">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1962,13 +1962,13 @@
         <v>32</v>
       </c>
       <c r="B22" s="13">
-        <v>809</v>
+        <v>885</v>
       </c>
       <c r="C22" s="13">
-        <v>978</v>
+        <v>1075</v>
       </c>
       <c r="D22" s="14">
-        <v>-0.17299999999999999</v>
+        <v>-0.17599999999999999</v>
       </c>
       <c r="E22" s="13">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="13">
-        <v>797</v>
+        <v>872</v>
       </c>
       <c r="H22" s="13">
-        <v>970</v>
+        <v>1066</v>
       </c>
       <c r="I22" s="13">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>33</v>
       </c>
       <c r="L22" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2000,19 +2000,19 @@
         <v>34</v>
       </c>
       <c r="B23" s="13">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C23" s="13">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D23" s="14">
-        <v>-0.29399999999999998</v>
+        <v>-0.30099999999999999</v>
       </c>
       <c r="E23" s="13">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F23" s="13">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G23" s="13">
         <v>0</v>
@@ -2027,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="K23" s="13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L23" s="13">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2038,13 +2038,13 @@
         <v>35</v>
       </c>
       <c r="B24" s="10">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C24" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D24" s="11">
-        <v>0.33300000000000002</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="E24" s="10">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>4</v>
       </c>
       <c r="J24" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K24" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L24" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2076,13 +2076,13 @@
         <v>36</v>
       </c>
       <c r="B25" s="13">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C25" s="13">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D25" s="14">
-        <v>0.33300000000000002</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="E25" s="13">
         <v>0</v>
@@ -2100,13 +2100,13 @@
         <v>4</v>
       </c>
       <c r="J25" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K25" s="13">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L25" s="13">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2342,19 +2342,19 @@
         <v>43</v>
       </c>
       <c r="B32" s="10">
-        <v>2007</v>
+        <v>2049</v>
       </c>
       <c r="C32" s="10">
-        <v>1462</v>
+        <v>1570</v>
       </c>
       <c r="D32" s="11">
-        <v>0.373</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="E32" s="10">
-        <v>1917</v>
+        <v>1952</v>
       </c>
       <c r="F32" s="10">
-        <v>1370</v>
+        <v>1464</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="10">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L32" s="10">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2456,19 +2456,19 @@
         <v>46</v>
       </c>
       <c r="B35" s="13">
-        <v>1917</v>
+        <v>1952</v>
       </c>
       <c r="C35" s="13">
-        <v>1370</v>
+        <v>1464</v>
       </c>
       <c r="D35" s="14">
-        <v>0.39900000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E35" s="13">
-        <v>1917</v>
+        <v>1952</v>
       </c>
       <c r="F35" s="13">
-        <v>1370</v>
+        <v>1464</v>
       </c>
       <c r="G35" s="13">
         <v>0</v>
@@ -2494,13 +2494,13 @@
         <v>47</v>
       </c>
       <c r="B36" s="13">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C36" s="13">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D36" s="14">
-        <v>-2.4E-2</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="E36" s="13">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="13">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L36" s="13">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2722,19 +2722,19 @@
         <v>53</v>
       </c>
       <c r="B42" s="10">
-        <v>972</v>
+        <v>1051</v>
       </c>
       <c r="C42" s="10">
-        <v>828</v>
+        <v>906</v>
       </c>
       <c r="D42" s="11">
-        <v>0.17399999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="E42" s="10">
-        <v>972</v>
+        <v>1051</v>
       </c>
       <c r="F42" s="10">
-        <v>828</v>
+        <v>906</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
@@ -2798,19 +2798,19 @@
         <v>55</v>
       </c>
       <c r="B44" s="13">
-        <v>972</v>
+        <v>1051</v>
       </c>
       <c r="C44" s="13">
-        <v>828</v>
+        <v>906</v>
       </c>
       <c r="D44" s="14">
-        <v>0.17399999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="E44" s="13">
-        <v>972</v>
+        <v>1051</v>
       </c>
       <c r="F44" s="13">
-        <v>828</v>
+        <v>906</v>
       </c>
       <c r="G44" s="13">
         <v>0</v>
@@ -2912,19 +2912,19 @@
         <v>58</v>
       </c>
       <c r="B47" s="10">
-        <v>3946</v>
+        <v>4407</v>
       </c>
       <c r="C47" s="10">
-        <v>3804</v>
+        <v>3955</v>
       </c>
       <c r="D47" s="11">
-        <v>3.6999999999999998E-2</v>
+        <v>0.114</v>
       </c>
       <c r="E47" s="10">
-        <v>3679</v>
+        <v>4116</v>
       </c>
       <c r="F47" s="10">
-        <v>3523</v>
+        <v>3644</v>
       </c>
       <c r="G47" s="10">
         <v>0</v>
@@ -2939,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="K47" s="10">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="L47" s="10">
-        <v>281</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2988,19 +2988,19 @@
         <v>60</v>
       </c>
       <c r="B49" s="13">
-        <v>3844</v>
+        <v>4296</v>
       </c>
       <c r="C49" s="13">
-        <v>3689</v>
+        <v>3829</v>
       </c>
       <c r="D49" s="14">
-        <v>4.2000000000000003E-2</v>
+        <v>0.122</v>
       </c>
       <c r="E49" s="13">
-        <v>3679</v>
+        <v>4116</v>
       </c>
       <c r="F49" s="13">
-        <v>3523</v>
+        <v>3644</v>
       </c>
       <c r="G49" s="13">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="13">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="L49" s="13">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3064,13 +3064,13 @@
         <v>62</v>
       </c>
       <c r="B51" s="13">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C51" s="13">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D51" s="14">
-        <v>-0.11700000000000001</v>
+        <v>-0.11899999999999999</v>
       </c>
       <c r="E51" s="13">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="K51" s="13">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L51" s="13">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3102,13 +3102,13 @@
         <v>63</v>
       </c>
       <c r="B52" s="10">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="C52" s="10">
-        <v>403</v>
+        <v>442</v>
       </c>
       <c r="D52" s="11">
-        <v>-0.104</v>
+        <v>-9.2999999999999999E-2</v>
       </c>
       <c r="E52" s="10">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="10">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="H52" s="10">
-        <v>403</v>
+        <v>442</v>
       </c>
       <c r="I52" s="10">
         <v>0</v>
@@ -3254,13 +3254,13 @@
         <v>67</v>
       </c>
       <c r="B56" s="13">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="C56" s="13">
-        <v>403</v>
+        <v>442</v>
       </c>
       <c r="D56" s="14">
-        <v>-0.104</v>
+        <v>-9.2999999999999999E-2</v>
       </c>
       <c r="E56" s="13">
         <v>0</v>
@@ -3269,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="G56" s="13">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="H56" s="13">
-        <v>403</v>
+        <v>442</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -3710,37 +3710,37 @@
         <v>79</v>
       </c>
       <c r="B68" s="10">
-        <v>9585</v>
+        <v>10366</v>
       </c>
       <c r="C68" s="10">
-        <v>9413</v>
+        <v>10128</v>
       </c>
       <c r="D68" s="11">
-        <v>1.7999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E68" s="10">
-        <v>7618</v>
+        <v>8214</v>
       </c>
       <c r="F68" s="10">
-        <v>7184</v>
+        <v>7674</v>
       </c>
       <c r="G68" s="10">
-        <v>1161</v>
+        <v>1276</v>
       </c>
       <c r="H68" s="10">
-        <v>1394</v>
+        <v>1533</v>
       </c>
       <c r="I68" s="10">
         <v>4</v>
       </c>
       <c r="J68" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K68" s="10">
-        <v>802</v>
+        <v>871</v>
       </c>
       <c r="L68" s="10">
-        <v>827</v>
+        <v>912</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
